--- a/defaults/stats.xlsx
+++ b/defaults/stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="814">
   <si>
     <t>Index</t>
   </si>
@@ -2107,124 +2107,127 @@
     <t>Sam Hous St</t>
   </si>
   <si>
+    <t>S Alabama</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>E Michigan</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Iowa St</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Colorado St</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Fla Atlantic</t>
+  </si>
+  <si>
+    <t>Ball St</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>GA Tech</t>
+  </si>
+  <si>
+    <t>N Mex State</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Miss State</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>UL Monroe</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Oklahoma St</t>
+  </si>
+  <si>
+    <t>Tulane</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Fresno St</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Jksnville St</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>LA Tech</t>
+  </si>
+  <si>
     <t>Alabama</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>E Michigan</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t>Iowa St</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Colorado St</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Fla Atlantic</t>
-  </si>
-  <si>
-    <t>Ball St</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Tulsa</t>
-  </si>
-  <si>
-    <t>GA Tech</t>
-  </si>
-  <si>
-    <t>N Mex State</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>Miss State</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>UL Monroe</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Oklahoma St</t>
-  </si>
-  <si>
-    <t>Tulane</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>Fresno St</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>Jksnville St</t>
-  </si>
-  <si>
-    <t>Old Dominion</t>
-  </si>
-  <si>
-    <t>LA Tech</t>
   </si>
   <si>
     <t>Air Force</t>
@@ -2871,7 +2874,7 @@
         <v>99.8</v>
       </c>
       <c r="G2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H2">
         <v>60.7</v>
@@ -2906,7 +2909,7 @@
         <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H3">
         <v>72.3</v>
@@ -2941,7 +2944,7 @@
         <v>66.3</v>
       </c>
       <c r="G4" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H4">
         <v>54.7</v>
@@ -2976,7 +2979,7 @@
         <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H5">
         <v>57.3</v>
@@ -3011,7 +3014,7 @@
         <v>65.59999999999999</v>
       </c>
       <c r="G6" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H6" t="s">
         <v>573</v>
@@ -3046,7 +3049,7 @@
         <v>50.7</v>
       </c>
       <c r="G7" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H7" t="s">
         <v>573</v>
@@ -3081,7 +3084,7 @@
         <v>44.8</v>
       </c>
       <c r="G8" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H8" t="s">
         <v>573</v>
@@ -3116,7 +3119,7 @@
         <v>83.8</v>
       </c>
       <c r="G9" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H9">
         <v>61.7</v>
@@ -3151,7 +3154,7 @@
         <v>87.59999999999999</v>
       </c>
       <c r="G10" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H10">
         <v>66</v>
@@ -3186,7 +3189,7 @@
         <v>88.59999999999999</v>
       </c>
       <c r="G11" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H11">
         <v>77.3</v>
@@ -3221,7 +3224,7 @@
         <v>38.4</v>
       </c>
       <c r="G12" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H12" t="s">
         <v>573</v>
@@ -3256,7 +3259,7 @@
         <v>63.6</v>
       </c>
       <c r="G13" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H13" t="s">
         <v>573</v>
@@ -3291,7 +3294,7 @@
         <v>68.59999999999999</v>
       </c>
       <c r="G14" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H14" t="s">
         <v>573</v>
@@ -3326,7 +3329,7 @@
         <v>64.3</v>
       </c>
       <c r="G15" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H15">
         <v>64.7</v>
@@ -3361,7 +3364,7 @@
         <v>93.90000000000001</v>
       </c>
       <c r="G16" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H16">
         <v>74.3</v>
@@ -3396,7 +3399,7 @@
         <v>80.59999999999999</v>
       </c>
       <c r="G17" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H17">
         <v>60</v>
@@ -3431,7 +3434,7 @@
         <v>93</v>
       </c>
       <c r="G18" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H18">
         <v>64</v>
@@ -3466,7 +3469,7 @@
         <v>68.5</v>
       </c>
       <c r="G19" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H19">
         <v>72.7</v>
@@ -3501,7 +3504,7 @@
         <v>35.6</v>
       </c>
       <c r="G20" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H20" t="s">
         <v>573</v>
@@ -3536,7 +3539,7 @@
         <v>52.8</v>
       </c>
       <c r="G21" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H21" t="s">
         <v>573</v>
@@ -3571,7 +3574,7 @@
         <v>52.4</v>
       </c>
       <c r="G22" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H22" t="s">
         <v>573</v>
@@ -3606,7 +3609,7 @@
         <v>63.2</v>
       </c>
       <c r="G23" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H23" t="s">
         <v>573</v>
@@ -3641,7 +3644,7 @@
         <v>40.7</v>
       </c>
       <c r="G24" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H24" t="s">
         <v>573</v>
@@ -3676,7 +3679,7 @@
         <v>54.6</v>
       </c>
       <c r="G25" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H25" t="s">
         <v>573</v>
@@ -3711,7 +3714,7 @@
         <v>52.5</v>
       </c>
       <c r="G26" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H26" t="s">
         <v>573</v>
@@ -3746,19 +3749,19 @@
         <v>44.2</v>
       </c>
       <c r="G27" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H27">
-        <v>69.7</v>
+        <v>77.3</v>
       </c>
       <c r="I27">
-        <v>0.354</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="J27">
-        <v>25</v>
+        <v>20.7</v>
       </c>
       <c r="K27">
-        <v>0.405</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3781,7 +3784,7 @@
         <v>56.2</v>
       </c>
       <c r="G28" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H28" t="s">
         <v>573</v>
@@ -3816,7 +3819,7 @@
         <v>56.2</v>
       </c>
       <c r="G29" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H29" t="s">
         <v>573</v>
@@ -3851,7 +3854,7 @@
         <v>103.6</v>
       </c>
       <c r="G30" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H30">
         <v>72</v>
@@ -3886,7 +3889,7 @@
         <v>93.09999999999999</v>
       </c>
       <c r="G31" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H31">
         <v>70.3</v>
@@ -3921,7 +3924,7 @@
         <v>77.59999999999999</v>
       </c>
       <c r="G32" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H32" t="s">
         <v>573</v>
@@ -3956,7 +3959,7 @@
         <v>90.2</v>
       </c>
       <c r="G33" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H33">
         <v>82</v>
@@ -3991,7 +3994,7 @@
         <v>79.40000000000001</v>
       </c>
       <c r="G34" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H34" t="s">
         <v>573</v>
@@ -4026,7 +4029,7 @@
         <v>28</v>
       </c>
       <c r="G35" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H35" t="s">
         <v>573</v>
@@ -4061,7 +4064,7 @@
         <v>64.40000000000001</v>
       </c>
       <c r="G36" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H36">
         <v>67.7</v>
@@ -4096,7 +4099,7 @@
         <v>82.2</v>
       </c>
       <c r="G37" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H37">
         <v>72.3</v>
@@ -4131,7 +4134,7 @@
         <v>89.5</v>
       </c>
       <c r="G38" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H38">
         <v>69</v>
@@ -4166,7 +4169,7 @@
         <v>92.5</v>
       </c>
       <c r="G39" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H39">
         <v>71.7</v>
@@ -4201,7 +4204,7 @@
         <v>74.3</v>
       </c>
       <c r="G40" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H40">
         <v>66.7</v>
@@ -4236,7 +4239,7 @@
         <v>96.09999999999999</v>
       </c>
       <c r="G41" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H41">
         <v>50.7</v>
@@ -4271,7 +4274,7 @@
         <v>46.1</v>
       </c>
       <c r="G42" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H42" t="s">
         <v>573</v>
@@ -4306,7 +4309,7 @@
         <v>82.2</v>
       </c>
       <c r="G43" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H43">
         <v>69.7</v>
@@ -4341,7 +4344,7 @@
         <v>62.5</v>
       </c>
       <c r="G44" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H44" t="s">
         <v>573</v>
@@ -4376,7 +4379,7 @@
         <v>83</v>
       </c>
       <c r="G45" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H45">
         <v>57</v>
@@ -4411,7 +4414,7 @@
         <v>25.5</v>
       </c>
       <c r="G46" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H46" t="s">
         <v>573</v>
@@ -4446,7 +4449,7 @@
         <v>98.40000000000001</v>
       </c>
       <c r="G47" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H47">
         <v>62.7</v>
@@ -4481,7 +4484,7 @@
         <v>74.2</v>
       </c>
       <c r="G48" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H48">
         <v>69.3</v>
@@ -4516,7 +4519,7 @@
         <v>51.1</v>
       </c>
       <c r="G49" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H49" t="s">
         <v>573</v>
@@ -4551,7 +4554,7 @@
         <v>78.8</v>
       </c>
       <c r="G50" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H50">
         <v>69.3</v>
@@ -4586,7 +4589,7 @@
         <v>68.90000000000001</v>
       </c>
       <c r="G51" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H51">
         <v>76</v>
@@ -4621,7 +4624,7 @@
         <v>95.40000000000001</v>
       </c>
       <c r="G52" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H52">
         <v>75.7</v>
@@ -4656,7 +4659,7 @@
         <v>107.2</v>
       </c>
       <c r="G53" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H53">
         <v>73.7</v>
@@ -4691,7 +4694,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H54">
         <v>61.3</v>
@@ -4726,7 +4729,7 @@
         <v>77.90000000000001</v>
       </c>
       <c r="G55" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H55">
         <v>70.7</v>
@@ -4761,7 +4764,7 @@
         <v>59.7</v>
       </c>
       <c r="G56" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H56">
         <v>72.7</v>
@@ -4796,7 +4799,7 @@
         <v>84.40000000000001</v>
       </c>
       <c r="G57" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H57">
         <v>76</v>
@@ -4831,7 +4834,7 @@
         <v>44.6</v>
       </c>
       <c r="G58" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H58" t="s">
         <v>573</v>
@@ -4866,7 +4869,7 @@
         <v>56.7</v>
       </c>
       <c r="G59" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H59" t="s">
         <v>573</v>
@@ -4901,7 +4904,7 @@
         <v>70.40000000000001</v>
       </c>
       <c r="G60" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H60">
         <v>75.3</v>
@@ -4936,7 +4939,7 @@
         <v>93.59999999999999</v>
       </c>
       <c r="G61" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H61">
         <v>63.7</v>
@@ -4971,7 +4974,7 @@
         <v>49.1</v>
       </c>
       <c r="G62" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H62" t="s">
         <v>573</v>
@@ -5006,7 +5009,7 @@
         <v>69.8</v>
       </c>
       <c r="G63" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H63" t="s">
         <v>573</v>
@@ -5041,7 +5044,7 @@
         <v>77.2</v>
       </c>
       <c r="G64" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H64">
         <v>70.3</v>
@@ -5076,7 +5079,7 @@
         <v>69.2</v>
       </c>
       <c r="G65" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H65" t="s">
         <v>573</v>
@@ -5111,7 +5114,7 @@
         <v>105.2</v>
       </c>
       <c r="G66" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H66">
         <v>76</v>
@@ -5146,7 +5149,7 @@
         <v>49.9</v>
       </c>
       <c r="G67" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H67">
         <v>67.3</v>
@@ -5181,7 +5184,7 @@
         <v>44.8</v>
       </c>
       <c r="G68" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H68" t="s">
         <v>573</v>
@@ -5216,7 +5219,7 @@
         <v>74</v>
       </c>
       <c r="G69" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H69">
         <v>69.7</v>
@@ -5251,7 +5254,7 @@
         <v>72.40000000000001</v>
       </c>
       <c r="G70" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H70">
         <v>66.7</v>
@@ -5286,7 +5289,7 @@
         <v>61</v>
       </c>
       <c r="G71" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H71">
         <v>70.7</v>
@@ -5321,7 +5324,7 @@
         <v>88.59999999999999</v>
       </c>
       <c r="G72" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H72">
         <v>65</v>
@@ -5356,7 +5359,7 @@
         <v>93.09999999999999</v>
       </c>
       <c r="G73" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H73">
         <v>75</v>
@@ -5391,7 +5394,7 @@
         <v>86.59999999999999</v>
       </c>
       <c r="G74" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H74">
         <v>62.7</v>
@@ -5426,7 +5429,7 @@
         <v>70.59999999999999</v>
       </c>
       <c r="G75" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H75" t="s">
         <v>573</v>
@@ -5461,7 +5464,7 @@
         <v>96.3</v>
       </c>
       <c r="G76" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H76">
         <v>61.7</v>
@@ -5496,7 +5499,7 @@
         <v>70.3</v>
       </c>
       <c r="G77" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H77" t="s">
         <v>573</v>
@@ -5531,7 +5534,7 @@
         <v>114</v>
       </c>
       <c r="G78" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H78">
         <v>65.3</v>
@@ -5566,7 +5569,7 @@
         <v>45.2</v>
       </c>
       <c r="G79" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H79" t="s">
         <v>573</v>
@@ -5601,7 +5604,7 @@
         <v>99.5</v>
       </c>
       <c r="G80" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H80" t="s">
         <v>573</v>
@@ -5636,7 +5639,7 @@
         <v>67.8</v>
       </c>
       <c r="G81" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H81" t="s">
         <v>573</v>
@@ -5671,7 +5674,7 @@
         <v>83.3</v>
       </c>
       <c r="G82" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H82">
         <v>58.3</v>
@@ -5706,7 +5709,7 @@
         <v>57.2</v>
       </c>
       <c r="G83" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H83" t="s">
         <v>573</v>
@@ -5741,7 +5744,7 @@
         <v>72.5</v>
       </c>
       <c r="G84" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H84" t="s">
         <v>573</v>
@@ -5776,7 +5779,7 @@
         <v>-18.2</v>
       </c>
       <c r="G85" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H85" t="s">
         <v>573</v>
@@ -5811,7 +5814,7 @@
         <v>64.3</v>
       </c>
       <c r="G86" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H86">
         <v>70.7</v>
@@ -5846,7 +5849,7 @@
         <v>93.90000000000001</v>
       </c>
       <c r="G87" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H87">
         <v>76</v>
@@ -5881,7 +5884,7 @@
         <v>101.2</v>
       </c>
       <c r="G88" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H88">
         <v>83.7</v>
@@ -5916,7 +5919,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="G89" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H89">
         <v>67.3</v>
@@ -5951,7 +5954,7 @@
         <v>84.7</v>
       </c>
       <c r="G90" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H90">
         <v>82.7</v>
@@ -5986,7 +5989,7 @@
         <v>74.90000000000001</v>
       </c>
       <c r="G91" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H91">
         <v>65</v>
@@ -6021,7 +6024,7 @@
         <v>109</v>
       </c>
       <c r="G92" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H92">
         <v>69</v>
@@ -6056,7 +6059,7 @@
         <v>67.40000000000001</v>
       </c>
       <c r="G93" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H93" t="s">
         <v>573</v>
@@ -6091,7 +6094,7 @@
         <v>54</v>
       </c>
       <c r="G94" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H94" t="s">
         <v>573</v>
@@ -6126,7 +6129,7 @@
         <v>72.40000000000001</v>
       </c>
       <c r="G95" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H95">
         <v>68.3</v>
@@ -6161,7 +6164,7 @@
         <v>72.7</v>
       </c>
       <c r="G96" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H96" t="s">
         <v>573</v>
@@ -6190,13 +6193,13 @@
         <v>559</v>
       </c>
       <c r="E97" t="s">
-        <v>697</v>
+        <v>737</v>
       </c>
       <c r="F97">
         <v>112.7</v>
       </c>
       <c r="G97" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H97">
         <v>69.7</v>
@@ -6225,13 +6228,13 @@
         <v>560</v>
       </c>
       <c r="E98" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F98">
         <v>88.09999999999999</v>
       </c>
       <c r="G98" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H98">
         <v>68.7</v>
@@ -6266,7 +6269,7 @@
         <v>64.90000000000001</v>
       </c>
       <c r="G99" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H99" t="s">
         <v>573</v>
@@ -6301,7 +6304,7 @@
         <v>37.1</v>
       </c>
       <c r="G100" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H100" t="s">
         <v>573</v>
@@ -6336,7 +6339,7 @@
         <v>72</v>
       </c>
       <c r="G101" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H101" t="s">
         <v>573</v>
@@ -6365,13 +6368,13 @@
         <v>564</v>
       </c>
       <c r="E102" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F102">
         <v>77.7</v>
       </c>
       <c r="G102" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H102">
         <v>79.7</v>
@@ -6406,7 +6409,7 @@
         <v>83.59999999999999</v>
       </c>
       <c r="G103" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H103">
         <v>67.3</v>
@@ -6435,13 +6438,13 @@
         <v>566</v>
       </c>
       <c r="E104" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F104">
         <v>112.4</v>
       </c>
       <c r="G104" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H104">
         <v>79.7</v>
@@ -6470,13 +6473,13 @@
         <v>567</v>
       </c>
       <c r="E105" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F105">
         <v>80.09999999999999</v>
       </c>
       <c r="G105" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H105">
         <v>62.3</v>
@@ -6511,7 +6514,7 @@
         <v>52.6</v>
       </c>
       <c r="G106" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H106" t="s">
         <v>573</v>
@@ -6546,7 +6549,7 @@
         <v>94.59999999999999</v>
       </c>
       <c r="G107" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H107">
         <v>77.3</v>
@@ -6581,7 +6584,7 @@
         <v>60.5</v>
       </c>
       <c r="G108" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H108" t="s">
         <v>573</v>
@@ -6616,7 +6619,7 @@
         <v>57.7</v>
       </c>
       <c r="G109" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H109" t="s">
         <v>573</v>
@@ -6645,13 +6648,13 @@
         <v>572</v>
       </c>
       <c r="E110" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F110">
         <v>68.8</v>
       </c>
       <c r="G110" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H110">
         <v>67</v>
@@ -6715,13 +6718,13 @@
         <v>574</v>
       </c>
       <c r="E112" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F112">
         <v>89.3</v>
       </c>
       <c r="G112" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H112">
         <v>73</v>
@@ -6750,13 +6753,13 @@
         <v>575</v>
       </c>
       <c r="E113" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F113">
         <v>80.2</v>
       </c>
       <c r="G113" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H113">
         <v>55.3</v>
@@ -6785,13 +6788,13 @@
         <v>576</v>
       </c>
       <c r="E114" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F114">
         <v>109</v>
       </c>
       <c r="G114" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H114">
         <v>63.7</v>
@@ -6820,13 +6823,13 @@
         <v>577</v>
       </c>
       <c r="E115" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F115">
         <v>59</v>
       </c>
       <c r="G115" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H115">
         <v>70.7</v>
@@ -6855,13 +6858,13 @@
         <v>578</v>
       </c>
       <c r="E116" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F116">
         <v>63.9</v>
       </c>
       <c r="G116" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H116">
         <v>66.3</v>
@@ -6896,7 +6899,7 @@
         <v>-6.2</v>
       </c>
       <c r="G117" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H117" t="s">
         <v>573</v>
@@ -6925,13 +6928,13 @@
         <v>580</v>
       </c>
       <c r="E118" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F118">
         <v>84.09999999999999</v>
       </c>
       <c r="G118" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H118">
         <v>60.3</v>
@@ -6960,13 +6963,13 @@
         <v>581</v>
       </c>
       <c r="E119" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F119">
         <v>81.59999999999999</v>
       </c>
       <c r="G119" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H119">
         <v>66</v>
@@ -7001,7 +7004,7 @@
         <v>85.8</v>
       </c>
       <c r="G120" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H120">
         <v>63.3</v>
@@ -7030,13 +7033,13 @@
         <v>583</v>
       </c>
       <c r="E121" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F121">
         <v>75.40000000000001</v>
       </c>
       <c r="G121" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H121">
         <v>69.3</v>
@@ -7071,7 +7074,7 @@
         <v>56.3</v>
       </c>
       <c r="G122" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H122">
         <v>69</v>
@@ -7100,13 +7103,13 @@
         <v>585</v>
       </c>
       <c r="E123" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F123">
         <v>119.7</v>
       </c>
       <c r="G123" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H123">
         <v>61</v>
@@ -7141,7 +7144,7 @@
         <v>51.2</v>
       </c>
       <c r="G124" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H124" t="s">
         <v>573</v>
@@ -7176,7 +7179,7 @@
         <v>70.2</v>
       </c>
       <c r="G125" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H125" t="s">
         <v>573</v>
@@ -7205,13 +7208,13 @@
         <v>588</v>
       </c>
       <c r="E126" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F126">
         <v>100.6</v>
       </c>
       <c r="G126" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H126">
         <v>59.3</v>
@@ -7246,7 +7249,7 @@
         <v>64.8</v>
       </c>
       <c r="G127" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H127" t="s">
         <v>573</v>
@@ -7281,7 +7284,7 @@
         <v>26.2</v>
       </c>
       <c r="G128" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H128" t="s">
         <v>573</v>
@@ -7316,7 +7319,7 @@
         <v>47.5</v>
       </c>
       <c r="G129" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H129" t="s">
         <v>573</v>
@@ -7345,13 +7348,13 @@
         <v>592</v>
       </c>
       <c r="E130" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F130">
         <v>111.3</v>
       </c>
       <c r="G130" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H130">
         <v>64.3</v>
@@ -7380,13 +7383,13 @@
         <v>593</v>
       </c>
       <c r="E131" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F131">
         <v>88.90000000000001</v>
       </c>
       <c r="G131" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H131">
         <v>69.7</v>
@@ -7415,13 +7418,13 @@
         <v>594</v>
       </c>
       <c r="E132" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F132">
         <v>117.6</v>
       </c>
       <c r="G132" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H132">
         <v>64.3</v>
@@ -7456,7 +7459,7 @@
         <v>46.2</v>
       </c>
       <c r="G133" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H133" t="s">
         <v>573</v>
@@ -7485,13 +7488,13 @@
         <v>596</v>
       </c>
       <c r="E134" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F134">
         <v>101.8</v>
       </c>
       <c r="G134" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H134">
         <v>80.3</v>
@@ -7520,13 +7523,13 @@
         <v>597</v>
       </c>
       <c r="E135" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F135">
         <v>95.09999999999999</v>
       </c>
       <c r="G135" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H135">
         <v>84</v>
@@ -7555,13 +7558,13 @@
         <v>598</v>
       </c>
       <c r="E136" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F136">
         <v>82.7</v>
       </c>
       <c r="G136" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H136">
         <v>68.3</v>
@@ -7590,13 +7593,13 @@
         <v>599</v>
       </c>
       <c r="E137" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F137">
         <v>64.09999999999999</v>
       </c>
       <c r="G137" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H137">
         <v>73</v>
@@ -7625,13 +7628,13 @@
         <v>600</v>
       </c>
       <c r="E138" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="F138">
         <v>86</v>
       </c>
       <c r="G138" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H138">
         <v>76.3</v>
@@ -7666,7 +7669,7 @@
         <v>55.1</v>
       </c>
       <c r="G139" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H139" t="s">
         <v>573</v>
@@ -7701,7 +7704,7 @@
         <v>41.7</v>
       </c>
       <c r="G140" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H140" t="s">
         <v>573</v>
@@ -7736,7 +7739,7 @@
         <v>71.59999999999999</v>
       </c>
       <c r="G141" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H141" t="s">
         <v>573</v>
@@ -7771,7 +7774,7 @@
         <v>69.09999999999999</v>
       </c>
       <c r="G142" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H142" t="s">
         <v>573</v>
@@ -7806,7 +7809,7 @@
         <v>30.2</v>
       </c>
       <c r="G143" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H143" t="s">
         <v>573</v>
@@ -7841,7 +7844,7 @@
         <v>51</v>
       </c>
       <c r="G144" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H144" t="s">
         <v>573</v>
@@ -7870,13 +7873,13 @@
         <v>607</v>
       </c>
       <c r="E145" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F145">
         <v>78.59999999999999</v>
       </c>
       <c r="G145" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H145">
         <v>69</v>
@@ -7905,13 +7908,13 @@
         <v>383</v>
       </c>
       <c r="E146" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F146">
         <v>77.09999999999999</v>
       </c>
       <c r="G146" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H146">
         <v>68</v>
@@ -7940,13 +7943,13 @@
         <v>608</v>
       </c>
       <c r="E147" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F147">
         <v>32.5</v>
       </c>
       <c r="G147" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H147">
         <v>63.7</v>
@@ -7981,7 +7984,7 @@
         <v>54.6</v>
       </c>
       <c r="G148" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H148" t="s">
         <v>573</v>
@@ -8016,7 +8019,7 @@
         <v>44.6</v>
       </c>
       <c r="G149" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H149" t="s">
         <v>573</v>
@@ -8045,13 +8048,13 @@
         <v>611</v>
       </c>
       <c r="E150" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F150">
         <v>86.90000000000001</v>
       </c>
       <c r="G150" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H150">
         <v>62.3</v>
@@ -8086,7 +8089,7 @@
         <v>64</v>
       </c>
       <c r="G151" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H151" t="s">
         <v>573</v>
@@ -8115,13 +8118,13 @@
         <v>613</v>
       </c>
       <c r="E152" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F152">
         <v>70.59999999999999</v>
       </c>
       <c r="G152" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H152">
         <v>76</v>
@@ -8150,13 +8153,13 @@
         <v>614</v>
       </c>
       <c r="E153" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F153">
         <v>86.59999999999999</v>
       </c>
       <c r="G153" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H153">
         <v>62.7</v>
@@ -8185,13 +8188,13 @@
         <v>615</v>
       </c>
       <c r="E154" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F154">
         <v>41.9</v>
       </c>
       <c r="G154" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H154">
         <v>71</v>
@@ -8226,7 +8229,7 @@
         <v>44.9</v>
       </c>
       <c r="G155" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H155" t="s">
         <v>573</v>
@@ -8255,13 +8258,13 @@
         <v>617</v>
       </c>
       <c r="E156" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F156">
         <v>68.59999999999999</v>
       </c>
       <c r="G156" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H156">
         <v>62.3</v>
@@ -8296,7 +8299,7 @@
         <v>81.59999999999999</v>
       </c>
       <c r="G157" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H157">
         <v>59</v>
@@ -8325,13 +8328,13 @@
         <v>618</v>
       </c>
       <c r="E158" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F158">
         <v>88.2</v>
       </c>
       <c r="G158" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H158">
         <v>70.7</v>
@@ -8360,13 +8363,13 @@
         <v>619</v>
       </c>
       <c r="E159" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F159">
         <v>81.5</v>
       </c>
       <c r="G159" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H159">
         <v>56</v>
@@ -8395,13 +8398,13 @@
         <v>397</v>
       </c>
       <c r="E160" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F160">
         <v>83.7</v>
       </c>
       <c r="G160" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H160">
         <v>69</v>
@@ -8430,13 +8433,13 @@
         <v>620</v>
       </c>
       <c r="E161" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F161">
         <v>95.59999999999999</v>
       </c>
       <c r="G161" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H161">
         <v>60.3</v>
@@ -8465,13 +8468,13 @@
         <v>621</v>
       </c>
       <c r="E162" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F162">
         <v>82.5</v>
       </c>
       <c r="G162" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H162">
         <v>62.7</v>
@@ -8506,7 +8509,7 @@
         <v>52.8</v>
       </c>
       <c r="G163" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H163" t="s">
         <v>573</v>
@@ -8535,13 +8538,13 @@
         <v>623</v>
       </c>
       <c r="E164" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F164">
         <v>96.59999999999999</v>
       </c>
       <c r="G164" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H164">
         <v>61</v>
@@ -8570,13 +8573,13 @@
         <v>624</v>
       </c>
       <c r="E165" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F165">
         <v>85</v>
       </c>
       <c r="G165" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H165">
         <v>75.7</v>
@@ -8611,7 +8614,7 @@
         <v>80.3</v>
       </c>
       <c r="G166" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H166" t="s">
         <v>573</v>
@@ -8640,13 +8643,13 @@
         <v>626</v>
       </c>
       <c r="E167" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F167">
         <v>106.7</v>
       </c>
       <c r="G167" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H167">
         <v>78.3</v>
@@ -8675,13 +8678,13 @@
         <v>627</v>
       </c>
       <c r="E168" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F168">
         <v>93.5</v>
       </c>
       <c r="G168" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H168">
         <v>61</v>
@@ -8716,7 +8719,7 @@
         <v>65.5</v>
       </c>
       <c r="G169" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H169" t="s">
         <v>573</v>
@@ -8745,13 +8748,13 @@
         <v>629</v>
       </c>
       <c r="E170" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F170">
         <v>94.3</v>
       </c>
       <c r="G170" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H170">
         <v>71.7</v>
@@ -8780,13 +8783,13 @@
         <v>630</v>
       </c>
       <c r="E171" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F171">
         <v>89.90000000000001</v>
       </c>
       <c r="G171" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H171">
         <v>67.3</v>
@@ -8821,7 +8824,7 @@
         <v>64.5</v>
       </c>
       <c r="G172" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H172">
         <v>67.3</v>
@@ -8850,13 +8853,13 @@
         <v>632</v>
       </c>
       <c r="E173" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F173">
         <v>69.5</v>
       </c>
       <c r="G173" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H173">
         <v>70</v>
@@ -8885,13 +8888,13 @@
         <v>543</v>
       </c>
       <c r="E174" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F174">
         <v>99.5</v>
       </c>
       <c r="G174" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H174">
         <v>70</v>
@@ -8926,7 +8929,7 @@
         <v>51.8</v>
       </c>
       <c r="G175" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H175" t="s">
         <v>573</v>
@@ -8961,7 +8964,7 @@
         <v>46.7</v>
       </c>
       <c r="G176" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H176" t="s">
         <v>573</v>
@@ -8996,7 +8999,7 @@
         <v>14.8</v>
       </c>
       <c r="G177" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H177" t="s">
         <v>573</v>
@@ -9031,7 +9034,7 @@
         <v>64.59999999999999</v>
       </c>
       <c r="G178" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H178" t="s">
         <v>573</v>
@@ -9060,13 +9063,13 @@
         <v>637</v>
       </c>
       <c r="E179" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F179">
         <v>67.59999999999999</v>
       </c>
       <c r="G179" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H179">
         <v>71</v>
@@ -9095,13 +9098,13 @@
         <v>638</v>
       </c>
       <c r="E180" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F180">
         <v>62.1</v>
       </c>
       <c r="G180" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H180">
         <v>71.3</v>
@@ -9130,13 +9133,13 @@
         <v>639</v>
       </c>
       <c r="E181" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F181">
         <v>121.3</v>
       </c>
       <c r="G181" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H181">
         <v>66</v>
@@ -9165,13 +9168,13 @@
         <v>640</v>
       </c>
       <c r="E182" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F182">
         <v>79.40000000000001</v>
       </c>
       <c r="G182" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H182">
         <v>66</v>
@@ -9206,7 +9209,7 @@
         <v>91.3</v>
       </c>
       <c r="G183" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H183" t="s">
         <v>573</v>
@@ -9241,7 +9244,7 @@
         <v>34.3</v>
       </c>
       <c r="G184" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H184" t="s">
         <v>573</v>
@@ -9276,7 +9279,7 @@
         <v>46.5</v>
       </c>
       <c r="G185" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H185" t="s">
         <v>573</v>
@@ -9311,7 +9314,7 @@
         <v>38.9</v>
       </c>
       <c r="G186" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H186" t="s">
         <v>573</v>
@@ -9340,13 +9343,13 @@
         <v>645</v>
       </c>
       <c r="E187" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F187">
         <v>98.3</v>
       </c>
       <c r="G187" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H187">
         <v>59.7</v>
@@ -9381,7 +9384,7 @@
         <v>43.9</v>
       </c>
       <c r="G188" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H188" t="s">
         <v>573</v>
@@ -9416,7 +9419,7 @@
         <v>93.59999999999999</v>
       </c>
       <c r="G189" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H189">
         <v>72.7</v>
@@ -9451,7 +9454,7 @@
         <v>39.7</v>
       </c>
       <c r="G190" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H190" t="s">
         <v>573</v>
@@ -9480,13 +9483,13 @@
         <v>649</v>
       </c>
       <c r="E191" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F191">
         <v>76</v>
       </c>
       <c r="G191" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H191">
         <v>85.3</v>
@@ -9521,7 +9524,7 @@
         <v>109.5</v>
       </c>
       <c r="G192" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H192">
         <v>69.7</v>
@@ -9550,13 +9553,13 @@
         <v>651</v>
       </c>
       <c r="E193" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F193">
         <v>75</v>
       </c>
       <c r="G193" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H193">
         <v>81</v>
@@ -9585,13 +9588,13 @@
         <v>652</v>
       </c>
       <c r="E194" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F194">
         <v>60.7</v>
       </c>
       <c r="G194" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H194">
         <v>59.7</v>
@@ -9620,13 +9623,13 @@
         <v>653</v>
       </c>
       <c r="E195" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F195">
         <v>94.7</v>
       </c>
       <c r="G195" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H195">
         <v>60</v>
@@ -9655,13 +9658,13 @@
         <v>654</v>
       </c>
       <c r="E196" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F196">
         <v>84.2</v>
       </c>
       <c r="G196" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H196">
         <v>54</v>
@@ -9690,13 +9693,13 @@
         <v>655</v>
       </c>
       <c r="E197" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F197">
         <v>70.2</v>
       </c>
       <c r="G197" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H197">
         <v>69.3</v>
@@ -9725,13 +9728,13 @@
         <v>656</v>
       </c>
       <c r="E198" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F198">
         <v>111.7</v>
       </c>
       <c r="G198" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H198">
         <v>62.7</v>
@@ -9766,7 +9769,7 @@
         <v>68.7</v>
       </c>
       <c r="G199" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H199" t="s">
         <v>573</v>
@@ -9801,7 +9804,7 @@
         <v>63.7</v>
       </c>
       <c r="G200" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H200" t="s">
         <v>573</v>
@@ -9830,13 +9833,13 @@
         <v>438</v>
       </c>
       <c r="E201" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F201">
         <v>80.5</v>
       </c>
       <c r="G201" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H201">
         <v>62</v>
@@ -9865,13 +9868,13 @@
         <v>659</v>
       </c>
       <c r="E202" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F202">
         <v>82.3</v>
       </c>
       <c r="G202" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H202">
         <v>67.7</v>
@@ -9900,13 +9903,13 @@
         <v>660</v>
       </c>
       <c r="E203" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F203">
         <v>77.3</v>
       </c>
       <c r="G203" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H203">
         <v>68.7</v>
@@ -9935,13 +9938,13 @@
         <v>661</v>
       </c>
       <c r="E204" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F204">
         <v>72.40000000000001</v>
       </c>
       <c r="G204" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H204">
         <v>68.7</v>
@@ -9970,13 +9973,13 @@
         <v>662</v>
       </c>
       <c r="E205" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F205">
         <v>93.90000000000001</v>
       </c>
       <c r="G205" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H205">
         <v>73</v>
@@ -10011,7 +10014,7 @@
         <v>50.1</v>
       </c>
       <c r="G206" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H206" t="s">
         <v>573</v>
@@ -10040,13 +10043,13 @@
         <v>664</v>
       </c>
       <c r="E207" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F207">
         <v>77.09999999999999</v>
       </c>
       <c r="G207" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H207">
         <v>72.7</v>
@@ -10075,13 +10078,13 @@
         <v>665</v>
       </c>
       <c r="E208" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F208">
         <v>82</v>
       </c>
       <c r="G208" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H208">
         <v>60</v>
@@ -10110,13 +10113,13 @@
         <v>666</v>
       </c>
       <c r="E209" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F209">
         <v>83.90000000000001</v>
       </c>
       <c r="G209" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H209">
         <v>69.7</v>
@@ -10145,13 +10148,13 @@
         <v>667</v>
       </c>
       <c r="E210" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F210">
         <v>76.40000000000001</v>
       </c>
       <c r="G210" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H210">
         <v>64</v>
@@ -10186,7 +10189,7 @@
         <v>67.59999999999999</v>
       </c>
       <c r="G211" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H211" t="s">
         <v>573</v>
@@ -10215,13 +10218,13 @@
         <v>669</v>
       </c>
       <c r="E212" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F212">
         <v>79</v>
       </c>
       <c r="G212" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H212">
         <v>75.3</v>
@@ -10256,7 +10259,7 @@
         <v>64.40000000000001</v>
       </c>
       <c r="G213" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H213" t="s">
         <v>573</v>
@@ -10285,13 +10288,13 @@
         <v>451</v>
       </c>
       <c r="E214" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F214">
         <v>93.3</v>
       </c>
       <c r="G214" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H214">
         <v>70</v>
@@ -10326,7 +10329,7 @@
         <v>67</v>
       </c>
       <c r="G215" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H215" t="s">
         <v>573</v>
@@ -10355,13 +10358,13 @@
         <v>637</v>
       </c>
       <c r="E216" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F216">
         <v>67.59999999999999</v>
       </c>
       <c r="G216" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H216">
         <v>71</v>
@@ -10396,7 +10399,7 @@
         <v>83.59999999999999</v>
       </c>
       <c r="G217" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H217">
         <v>67.7</v>
@@ -10431,7 +10434,7 @@
         <v>95.09999999999999</v>
       </c>
       <c r="G218" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H218">
         <v>54.7</v>
@@ -10460,13 +10463,13 @@
         <v>674</v>
       </c>
       <c r="E219" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F219">
         <v>97.90000000000001</v>
       </c>
       <c r="G219" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H219">
         <v>71</v>
@@ -10495,13 +10498,13 @@
         <v>675</v>
       </c>
       <c r="E220" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F220">
         <v>71.5</v>
       </c>
       <c r="G220" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H220">
         <v>68</v>
@@ -10530,13 +10533,13 @@
         <v>676</v>
       </c>
       <c r="E221" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F221">
         <v>92.90000000000001</v>
       </c>
       <c r="G221" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H221">
         <v>69.3</v>
@@ -10571,7 +10574,7 @@
         <v>66.7</v>
       </c>
       <c r="G222" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H222" t="s">
         <v>573</v>
@@ -10606,7 +10609,7 @@
         <v>59.4</v>
       </c>
       <c r="G223" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H223" t="s">
         <v>573</v>
@@ -10635,13 +10638,13 @@
         <v>679</v>
       </c>
       <c r="E224" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F224">
         <v>94.7</v>
       </c>
       <c r="G224" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H224">
         <v>64.7</v>
@@ -10670,13 +10673,13 @@
         <v>680</v>
       </c>
       <c r="E225" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F225">
         <v>95.2</v>
       </c>
       <c r="G225" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H225">
         <v>69.3</v>
@@ -10711,7 +10714,7 @@
         <v>53.4</v>
       </c>
       <c r="G226" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H226" t="s">
         <v>573</v>
@@ -10740,13 +10743,13 @@
         <v>682</v>
       </c>
       <c r="E227" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F227">
         <v>46.2</v>
       </c>
       <c r="G227" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H227">
         <v>67</v>
@@ -10775,13 +10778,13 @@
         <v>683</v>
       </c>
       <c r="E228" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F228">
         <v>88.09999999999999</v>
       </c>
       <c r="G228" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H228">
         <v>57</v>
@@ -10810,13 +10813,13 @@
         <v>684</v>
       </c>
       <c r="E229" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F229">
         <v>58.1</v>
       </c>
       <c r="G229" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H229">
         <v>63.7</v>
